--- a/Data/aearep-636/candidatepackages.xlsx
+++ b/Data/aearep-636/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,46 +22,37 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>egenmore</t>
   </si>
   <si>
     <t>parmest</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
+    <t>hbar</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>dstat</t>
   </si>
   <si>
-    <t>hbar</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>bys</t>
   </si>
   <si>
     <t>combine</t>
@@ -70,18 +61,6 @@
     <t>nearest</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -103,16 +82,7 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>aej_replication_crossborder.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
   </si>
 </sst>
 </file>
@@ -156,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -164,13 +134,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -190,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -202,7 +172,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -214,10 +184,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>499</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D5"/>
     </row>
@@ -226,10 +196,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>539</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D6"/>
     </row>
@@ -238,10 +208,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>267</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -250,10 +220,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>279</v>
+        <v>589</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.19471074640750885</v>
       </c>
       <c r="D8"/>
     </row>
@@ -262,10 +232,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>535</v>
+        <v>712</v>
       </c>
       <c r="C9">
-        <v>0.17738726735115051</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D9"/>
     </row>
@@ -274,10 +244,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>565</v>
+        <v>889</v>
       </c>
       <c r="C10">
-        <v>0.18733422458171844</v>
+        <v>0.29388430714607239</v>
       </c>
       <c r="D10"/>
     </row>
@@ -286,10 +256,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>566</v>
+        <v>955</v>
       </c>
       <c r="C11">
-        <v>0.18766577541828156</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D11"/>
     </row>
@@ -298,10 +268,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>594</v>
+        <v>982</v>
       </c>
       <c r="C12">
-        <v>0.19694960117340088</v>
+        <v>0.324628084897995</v>
       </c>
       <c r="D12"/>
     </row>
@@ -310,10 +280,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>745</v>
+        <v>1306</v>
       </c>
       <c r="C13">
-        <v>0.24701590836048126</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D13"/>
     </row>
@@ -322,10 +292,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>837</v>
+        <v>1414</v>
       </c>
       <c r="C14">
-        <v>0.27751988172531128</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D14"/>
     </row>
@@ -334,10 +304,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>868</v>
+        <v>1469</v>
       </c>
       <c r="C15">
-        <v>0.28779840469360352</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D15"/>
     </row>
@@ -346,96 +316,12 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1133</v>
+        <v>2436</v>
       </c>
       <c r="C16">
-        <v>0.37566313147544861</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1423</v>
-      </c>
-      <c r="C17">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1444</v>
-      </c>
-      <c r="C18">
-        <v>0.47877985239028931</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1472</v>
-      </c>
-      <c r="C19">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1798</v>
-      </c>
-      <c r="C20">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1817</v>
-      </c>
-      <c r="C21">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1859</v>
-      </c>
-      <c r="C22">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2424</v>
-      </c>
-      <c r="C23">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D23"/>
     </row>
   </sheetData>
 </worksheet>
@@ -443,47 +329,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
